--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PE_sensitivity_materials_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PE_sensitivity_materials_v1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/PhD/Models/ME optimisation model/Case study/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Bat_Sust_Model\example notebooks\Example publication - integrated modelling\data\ODYM_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="729" documentId="8_{C704130C-AFD9-4E6F-A450-A3B4D7FA986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{324AAD7B-6448-46B3-B180-B4922A8ECB8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF607BA9-C3A2-4F05-9E62-92DF7A82DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C82BDC45-F48D-48C0-8CFF-CB27729BCD38}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C82BDC45-F48D-48C0-8CFF-CB27729BCD38}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="values" sheetId="1" r:id="rId2"/>
-    <sheet name="ref" sheetId="4" r:id="rId3"/>
-    <sheet name="calc" sheetId="2" r:id="rId4"/>
+    <sheet name="calc" sheetId="2" r:id="rId3"/>
+    <sheet name="ref" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
     <author>tc={5A81CD60-4265-40D0-9D50-40D0CFD05DE9}</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{9EAB202A-2755-4DEB-B40E-CED5C6F90093}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{9EAB202A-2755-4DEB-B40E-CED5C6F90093}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
     Mn dioxide GWP - Mn concentrate*total concentrate</t>
       </text>
     </comment>
-    <comment ref="L16" authorId="1" shapeId="0" xr:uid="{5A81CD60-4265-40D0-9D50-40D0CFD05DE9}">
+    <comment ref="M16" authorId="1" shapeId="0" xr:uid="{5A81CD60-4265-40D0-9D50-40D0CFD05DE9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>low</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Mn concentrate (kg)</t>
   </si>
   <si>
-    <t>Manjong et al 2021 (min); Engels et al., 2022 (max)</t>
-  </si>
-  <si>
     <t>Used value (GWP/kg)</t>
   </si>
   <si>
@@ -379,15 +376,31 @@
   </si>
   <si>
     <t xml:space="preserve"> Manjong et al 2021 (low)  Surovtseva et al 2022 (high)</t>
+  </si>
+  <si>
+    <t>ecoinvent (low); Kelly et al.,  2022 (high)</t>
+  </si>
+  <si>
+    <t>market for lithium hydroxide</t>
+  </si>
+  <si>
+    <t>ecoinvent and Kelly et al., 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrafame (low) and Manjong et al 2021 (high)</t>
+  </si>
+  <si>
+    <t>Manjong et al 2021 (min)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -484,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -513,6 +526,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,10 +849,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L3" dT="2022-01-14T19:11:35.84" personId="{4D4198BC-857E-44EA-9289-41480EF87C18}" id="{9EAB202A-2755-4DEB-B40E-CED5C6F90093}">
+  <threadedComment ref="M3" dT="2022-01-14T19:11:35.84" personId="{4D4198BC-857E-44EA-9289-41480EF87C18}" id="{9EAB202A-2755-4DEB-B40E-CED5C6F90093}">
     <text>Mn dioxide GWP - Mn concentrate*total concentrate</text>
   </threadedComment>
-  <threadedComment ref="L16" dT="2022-01-14T18:43:34.57" personId="{4D4198BC-857E-44EA-9289-41480EF87C18}" id="{5A81CD60-4265-40D0-9D50-40D0CFD05DE9}">
+  <threadedComment ref="M16" dT="2022-01-14T18:43:34.57" personId="{4D4198BC-857E-44EA-9289-41480EF87C18}" id="{5A81CD60-4265-40D0-9D50-40D0CFD05DE9}">
     <text>0.99834 (Mn dioxide primary)*1.1313 (Mn oxide)*1.713 (concentrate)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1075,7 +1089,7 @@
       </c>
       <c r="F21" s="15">
         <f>COUNTA(values!1:1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
         <v>60</v>
@@ -1163,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0149AED-EFEF-4AD1-8B8F-F3767D8FC3E0}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,14 +1190,16 @@
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>80</v>
       </c>
@@ -1200,63 +1216,69 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.8692229203588235</v>
+        <v>1.82</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="D2" s="4">
-        <v>4.4543175847033751</v>
+        <v>1.75</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>3.1132994554188969</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.5453012203445695</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>2.5590000000000002</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.58</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1264,37 +1286,40 @@
         <v>20.6</v>
       </c>
       <c r="C3">
-        <v>9.6159999999999997</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>12.846357937995338</v>
+        <v>12.914251354090597</v>
       </c>
       <c r="E3">
-        <v>1.6259065700267614</v>
+        <v>3.5071908364389275</v>
       </c>
       <c r="F3">
-        <v>8.9600000000000009</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G3">
+        <v>15.7</v>
+      </c>
+      <c r="H3">
         <v>13.337023746741703</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>36.563653893280865</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>48.5016901927833</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>4.5381053420510282</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
   </sheetData>
@@ -1304,6 +1329,515 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97895D26-881C-4BFC-A443-B579A3B98E4B}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.57769000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.64735688410140502</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>2.61315534823956-(M20*M16)</f>
+        <v>2.4495818599792445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>6.7893416095258993E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.7893416095258993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.82</v>
+      </c>
+      <c r="C9">
+        <v>2.34</v>
+      </c>
+      <c r="D9">
+        <v>1.75</v>
+      </c>
+      <c r="E9">
+        <v>0.27</v>
+      </c>
+      <c r="F9">
+        <v>2.08</v>
+      </c>
+      <c r="G9">
+        <v>5.7156288027038498</v>
+      </c>
+      <c r="H9">
+        <v>3.1132994554188969</v>
+      </c>
+      <c r="I9">
+        <v>5.5453012203445695</v>
+      </c>
+      <c r="K9">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="L9">
+        <v>1.58</v>
+      </c>
+      <c r="M9">
+        <v>9.2865432363846034E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>20.6</v>
+      </c>
+      <c r="D10">
+        <v>30.73</v>
+      </c>
+      <c r="E10">
+        <v>3.08</v>
+      </c>
+      <c r="F10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>15.7</v>
+      </c>
+      <c r="H10">
+        <v>13.337023746741703</v>
+      </c>
+      <c r="I10">
+        <v>36.563653893280865</v>
+      </c>
+      <c r="J10">
+        <v>48.5016901927833</v>
+      </c>
+      <c r="M10">
+        <v>1.0795118998868851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4.9222920358823502E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.39924073992825698</v>
+      </c>
+      <c r="E16">
+        <v>0.90647420007865698</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <f>(0.998336106489185*1.1313)*1.713</f>
+        <v>1.9346924126455913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1.89</v>
+      </c>
+      <c r="D19">
+        <v>4.4559135769217404</v>
+      </c>
+      <c r="E19">
+        <v>3.2220737632979099E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.0766583510715</v>
+      </c>
+      <c r="G19">
+        <v>5.7156288027038498</v>
+      </c>
+      <c r="H19">
+        <v>6.49564549881209</v>
+      </c>
+      <c r="I19">
+        <v>13.3254452140747</v>
+      </c>
+      <c r="J19">
+        <v>10.549212184755801</v>
+      </c>
+      <c r="K19">
+        <v>29.192345470272699</v>
+      </c>
+      <c r="L19">
+        <v>4.7459346269533604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>8.45475421266772E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <v>13.571474792496399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>M20*M16</f>
+        <v>0.16357348826031587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <f>D21*D16</f>
+        <v>5.4182856380739501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:L26" si="0">IF(C$3+(C9*C$16)+C12&lt;C19,C$3+(C9*C$16)+C12,C19*C16+C3)</f>
+        <v>1.89</v>
+      </c>
+      <c r="D26" s="4">
+        <f>D9</f>
+        <v>1.75</v>
+      </c>
+      <c r="E26" s="4">
+        <f>E3+E5+(E9*E16)</f>
+        <v>0.95999833421790148</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0766583510715</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ref="G26" si="1">IF(G$3+(G9*G$16)+G12&lt;G19,G$3+(G9*G$16)+G12,G19*G16+G3)</f>
+        <v>5.7156288027038498</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1132994554188969</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="0"/>
+        <v>5.5453012203445695</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <f>D3+D5+(D10*D16)</f>
+        <v>12.914251354090597</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E3+E5+(E10*E16)</f>
+        <v>3.5071908364389275</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27:M27" si="2">IF(F$3+(F10*F$16)+F12&gt;F22,F$3+(F10*F$16)+F12,F22)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27" si="3">IF(G$3+(G10*G$16)+G12&gt;G22,G$3+(G10*G$16)+G12,G22)</f>
+        <v>15.7</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="2"/>
+        <v>13.337023746741703</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="2"/>
+        <v>36.563653893280865</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="2"/>
+        <v>48.5016901927833</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="2"/>
+        <v>4.5381053420510282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A0E23-4BFA-439F-8DA9-92C082FF7416}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1410,487 +1944,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97895D26-881C-4BFC-A443-B579A3B98E4B}">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.57769000000000004</v>
-      </c>
-      <c r="E3">
-        <v>0.64735688410140602</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>2.61315534823956-(L20*L16)</f>
-        <v>2.4495818599792445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>1.0795118998868851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.82</v>
-      </c>
-      <c r="C9">
-        <v>2.34</v>
-      </c>
-      <c r="D9">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="E9">
-        <v>9.2865432363846034E-2</v>
-      </c>
-      <c r="F9">
-        <v>2.08</v>
-      </c>
-      <c r="G9">
-        <v>3.1132994554188969</v>
-      </c>
-      <c r="H9">
-        <v>5.5453012203445695</v>
-      </c>
-      <c r="J9">
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="K9">
-        <v>1.58</v>
-      </c>
-      <c r="L9">
-        <v>9.2865432363846034E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>20.6</v>
-      </c>
-      <c r="C10">
-        <v>9.6159999999999997</v>
-      </c>
-      <c r="D10">
-        <v>30.73</v>
-      </c>
-      <c r="E10">
-        <v>1.0795118998868851</v>
-      </c>
-      <c r="F10">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="G10">
-        <v>13.337023746741703</v>
-      </c>
-      <c r="H10">
-        <v>36.563653893280865</v>
-      </c>
-      <c r="I10">
-        <v>48.5016901927833</v>
-      </c>
-      <c r="L10">
-        <v>1.0795118998868851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>4.9222920358823502E-2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.39924073992825698</v>
-      </c>
-      <c r="E16">
-        <v>0.90647420007865698</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <f>(0.998336106489185*1.1313)*1.713</f>
-        <v>1.9346924126455913</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>5.7371926249790404</v>
-      </c>
-      <c r="C19">
-        <v>1.89</v>
-      </c>
-      <c r="E19">
-        <v>3.2220737632979099E-2</v>
-      </c>
-      <c r="F19">
-        <v>2.0766583510715</v>
-      </c>
-      <c r="G19">
-        <v>6.49564549881209</v>
-      </c>
-      <c r="H19">
-        <v>13.3254452140747</v>
-      </c>
-      <c r="I19">
-        <v>10.549212184755801</v>
-      </c>
-      <c r="J19">
-        <v>29.192345470272699</v>
-      </c>
-      <c r="K19">
-        <v>4.7459346269533604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20">
-        <v>8.45475421266772E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21">
-        <v>13.571474792496399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L22">
-        <f>L20*L16</f>
-        <v>0.16357348826031587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <f>D21*D16</f>
-        <v>5.4182856380739501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" ref="B26:K26" si="0">IF(B$3+(B9*B$16)+B12&lt;B19,B$3+(B9*B$16)+B12,B19*B16+B3)</f>
-        <v>1.8692229203588235</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>1.89</v>
-      </c>
-      <c r="D26" s="4">
-        <f>D9*D16+D3</f>
-        <v>4.4543175847033751</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0766583510715</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1132994554188969</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5453012203445695</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" ref="B27:C27" si="1">IF(B$3+(B10*B$16)+B12&gt;B19,B$3+(B10*B$16)+B12,B19)</f>
-        <v>20.649222920358824</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>9.6159999999999997</v>
-      </c>
-      <c r="D27" s="4">
-        <f>D10*D16+D3</f>
-        <v>12.846357937995338</v>
-      </c>
-      <c r="E27" s="4">
-        <f>E10*E16+E3</f>
-        <v>1.6259065700267614</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" ref="F27:L27" si="2">IF(F$3+(F10*F$16)+F12&gt;F22,F$3+(F10*F$16)+F12,F22)</f>
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="2"/>
-        <v>13.337023746741703</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="2"/>
-        <v>36.563653893280865</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="2"/>
-        <v>48.5016901927833</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="17">
-        <f t="shared" si="2"/>
-        <v>4.5381053420510282</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PE_sensitivity_materials_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PE_sensitivity_materials_v1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Bat_Sust_Model\example notebooks\Example publication - integrated modelling\data\ODYM_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF607BA9-C3A2-4F05-9E62-92DF7A82DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2741E6-4858-4FC2-A25D-55035AD3D3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C82BDC45-F48D-48C0-8CFF-CB27729BCD38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C82BDC45-F48D-48C0-8CFF-CB27729BCD38}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="values" sheetId="1" r:id="rId2"/>
     <sheet name="calc" sheetId="2" r:id="rId3"/>
-    <sheet name="ref" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>low</t>
   </si>
@@ -315,18 +314,6 @@
     <t>anode active material (SiO) import</t>
   </si>
   <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>Manjong et al., 2021</t>
-  </si>
-  <si>
-    <t>ecoinvent silicon, solar grade</t>
-  </si>
-  <si>
     <t>market for cobalt hydroxide</t>
   </si>
   <si>
@@ -346,15 +333,6 @@
   </si>
   <si>
     <t>ecoinvent silicon solar grade</t>
-  </si>
-  <si>
-    <t>cobalt sulfate production (low)</t>
-  </si>
-  <si>
-    <t>market for cobalt hydroxide (low)</t>
-  </si>
-  <si>
-    <t>Dai et al., 2018</t>
   </si>
   <si>
     <t>Dai et al., 2018/Greet 2021</t>
@@ -862,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A00653-00C3-487E-A942-AADD507150C6}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0149AED-EFEF-4AD1-8B8F-F3767D8FC3E0}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -1228,13 +1206,13 @@
         <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1378,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -1390,13 +1368,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1454,7 +1432,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1468,10 +1446,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1546,43 +1524,43 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1666,7 +1644,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1703,7 +1681,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M20">
         <v>8.45475421266772E-2</v>
@@ -1711,7 +1689,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D21">
         <v>13.571474792496399</v>
@@ -1835,113 +1813,4 @@
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60A0E23-4BFA-439F-8DA9-92C082FF7416}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>